--- a/case_studies/summary/Performance Measurement New Server.xlsx
+++ b/case_studies/summary/Performance Measurement New Server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hermannkroll/Documents/PromotionProjekte/PubMedSnorkel/lib/KGExtractionToolbox/case_studies/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9014A7-55DB-4943-BF40-AC83D8B8B71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117CF208-31EE-1547-AE79-07C6EC2A62DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17720" yWindow="500" windowWidth="18120" windowHeight="21900" xr2:uid="{539F0658-8169-C44B-8A1D-0CC3FA545B0F}"/>
+    <workbookView xWindow="61300" yWindow="500" windowWidth="24880" windowHeight="21100" xr2:uid="{539F0658-8169-C44B-8A1D-0CC3FA545B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Sample</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Run 3</t>
   </si>
   <si>
-    <t xml:space="preserve">PathIE </t>
-  </si>
-  <si>
     <t>PubMed</t>
   </si>
   <si>
@@ -103,6 +100,15 @@
   </si>
   <si>
     <t>CoreNLP EF</t>
+  </si>
+  <si>
+    <t>PathIE  (32W)</t>
+  </si>
+  <si>
+    <t>PathIE (32W)</t>
+  </si>
+  <si>
+    <t>PathIE (96W)</t>
   </si>
 </sst>
 </file>
@@ -463,14 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9AA0F7-EBE6-FE4A-A9FB-3BD9F1FBB704}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="193" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="193" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="13.83203125" customWidth="1"/>
     <col min="13" max="13" width="13.5" customWidth="1"/>
   </cols>
@@ -492,46 +499,46 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
-      </c>
-      <c r="O1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>9.1</v>
@@ -543,11 +550,11 @@
         <v>9</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G2:G3" si="0">AVERAGE(C3:E3)</f>
+        <f t="shared" ref="G3" si="0">AVERAGE(C3:E3)</f>
         <v>9</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H19" si="1">G3/60</f>
+        <f t="shared" ref="H3:H9" si="1">G3/60</f>
         <v>0.15</v>
       </c>
       <c r="J3">
@@ -567,33 +574,33 @@
         <v>29700</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O2:O5" si="2">N3/86400</f>
+        <f t="shared" ref="O3:O6" si="2">N3/86400</f>
         <v>0.34375</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4">
-        <v>0</v>
+        <v>81.7</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G4" s="1">
         <f>AVERAGE(C4:E4)</f>
-        <v>0</v>
+        <v>75.066666666666663</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.2511111111111111</v>
       </c>
       <c r="J4">
         <v>10000</v>
@@ -609,36 +616,36 @@
       </c>
       <c r="N4">
         <f>(G4/J4)*M4</f>
-        <v>0</v>
+        <v>247720</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.8671296296296296</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>161.5</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>151.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="G5" s="1">
         <f>AVERAGE(C5:E5)</f>
-        <v>0</v>
+        <v>154.76666666666668</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="H5" si="3">G5/60</f>
+        <v>2.5794444444444449</v>
       </c>
       <c r="J5">
         <v>10000</v>
@@ -654,36 +661,36 @@
       </c>
       <c r="N5">
         <f>(G5/J5)*M5</f>
-        <v>0</v>
+        <v>510730.00000000006</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="O5" si="4">N5/86400</f>
+        <v>5.9112268518518523</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1571.7</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1571.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1580.5</v>
       </c>
       <c r="G6" s="1">
         <f>AVERAGE(C6:E6)</f>
-        <v>0</v>
+        <v>1574.6333333333332</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.243888888888886</v>
       </c>
       <c r="J6">
         <v>10000</v>
@@ -699,36 +706,36 @@
       </c>
       <c r="N6">
         <f>(G6/J6)*M6</f>
-        <v>0</v>
+        <v>5196289.9999999991</v>
       </c>
       <c r="O6" s="1">
-        <f>N6/86400</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>60.142245370370361</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>196.9</v>
+        <v>1065.9000000000001</v>
       </c>
       <c r="D7">
-        <v>196.7</v>
+        <v>1068</v>
       </c>
       <c r="E7">
-        <v>197.3</v>
+        <v>1061.9000000000001</v>
       </c>
       <c r="G7" s="1">
         <f>AVERAGE(C7:E7)</f>
-        <v>196.9666666666667</v>
+        <v>1065.2666666666667</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>3.2827777777777785</v>
+        <v>17.754444444444445</v>
       </c>
       <c r="J7">
         <v>10000</v>
@@ -743,37 +750,37 @@
         <v>33000000</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N8" si="3">(G7/J7)*M7</f>
-        <v>649990.00000000012</v>
+        <f>(G7/J7)*M7</f>
+        <v>3515379.9999999995</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" ref="O7:O8" si="4">N7/86400</f>
-        <v>7.5230324074074089</v>
+        <f>N7/86400</f>
+        <v>40.687268518518515</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>127.9</v>
+        <v>196.9</v>
       </c>
       <c r="D8">
-        <v>127.9</v>
+        <v>196.7</v>
       </c>
       <c r="E8">
-        <v>127.6</v>
+        <v>197.3</v>
       </c>
       <c r="G8" s="1">
         <f>AVERAGE(C8:E8)</f>
-        <v>127.8</v>
+        <v>196.9666666666667</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>2.13</v>
+        <v>3.2827777777777785</v>
       </c>
       <c r="J8">
         <v>10000</v>
@@ -788,82 +795,82 @@
         <v>33000000</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N8:N9" si="5">(G8/J8)*M8</f>
+        <v>649990.00000000012</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" ref="O8:O9" si="6">N8/86400</f>
+        <v>7.5230324074074089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>127.9</v>
+      </c>
+      <c r="D9">
+        <v>127.9</v>
+      </c>
+      <c r="E9">
+        <v>127.6</v>
+      </c>
+      <c r="G9" s="1">
+        <f>AVERAGE(C9:E9)</f>
+        <v>127.8</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.13</v>
+      </c>
+      <c r="J9">
+        <v>10000</v>
+      </c>
+      <c r="K9">
+        <v>87149</v>
+      </c>
+      <c r="L9">
+        <v>47389</v>
+      </c>
+      <c r="M9">
+        <v>33000000</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
         <v>421740</v>
       </c>
-      <c r="O8" s="1">
-        <f t="shared" si="4"/>
+      <c r="O9" s="1">
+        <f t="shared" si="6"/>
         <v>4.8812499999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>241.2</v>
-      </c>
-      <c r="D11">
-        <v>243.8</v>
-      </c>
-      <c r="E11">
-        <v>241.5</v>
-      </c>
-      <c r="G11" s="1">
-        <f>AVERAGE(C11:E11)</f>
-        <v>242.16666666666666</v>
-      </c>
-      <c r="H11" s="1">
-        <f>G11/60</f>
-        <v>4.0361111111111105</v>
-      </c>
-      <c r="J11">
-        <v>2373</v>
-      </c>
-      <c r="K11">
-        <v>74533</v>
-      </c>
-      <c r="L11">
-        <v>50318</v>
-      </c>
-      <c r="M11">
-        <v>6300000</v>
-      </c>
-      <c r="N11">
-        <f>(G11/J11)*M11</f>
-        <v>642920.35398230085</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" ref="O11:O15" si="5">N11/86400</f>
-        <v>7.4412078007210747</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>4.3</v>
+        <v>241.2</v>
       </c>
       <c r="D12">
-        <v>4.0999999999999996</v>
+        <v>243.8</v>
       </c>
       <c r="E12">
-        <v>4.0999999999999996</v>
+        <v>241.5</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G12" si="6">AVERAGE(C12:E12)</f>
-        <v>4.1666666666666661</v>
+        <f>AVERAGE(C12:E12)</f>
+        <v>242.16666666666666</v>
       </c>
       <c r="H12" s="1">
-        <f>G12/60</f>
-        <v>6.9444444444444434E-2</v>
+        <f t="shared" ref="H12:H19" si="7">G12/60</f>
+        <v>4.0361111111111105</v>
       </c>
       <c r="J12">
         <v>2373</v>
@@ -878,37 +885,37 @@
         <v>6300000</v>
       </c>
       <c r="N12">
-        <f>(G12/J12)*M12</f>
-        <v>11061.946902654867</v>
+        <f t="shared" ref="N12:N19" si="8">(G12/J12)*M12</f>
+        <v>642920.35398230085</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="5"/>
-        <v>0.12803179285480171</v>
+        <f t="shared" ref="O12:O17" si="9">N12/86400</f>
+        <v>7.4412078007210747</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G13" s="1">
-        <f>AVERAGE(C13:E13)</f>
-        <v>0</v>
+        <f t="shared" ref="G13" si="10">AVERAGE(C13:E13)</f>
+        <v>4.1666666666666661</v>
       </c>
       <c r="H13" s="1">
-        <f>G13/60</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="J13">
         <v>2373</v>
@@ -923,37 +930,37 @@
         <v>6300000</v>
       </c>
       <c r="N13">
-        <f>(G13/J13)*M13</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>11061.946902654867</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.12803179285480171</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>91.4</v>
       </c>
       <c r="G14" s="1">
-        <f>AVERAGE(C14:E14)</f>
-        <v>0</v>
+        <f>AVERAGE(C14:F14)</f>
+        <v>87.600000000000009</v>
       </c>
       <c r="H14" s="1">
-        <f>G14/60</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.4600000000000002</v>
       </c>
       <c r="J14">
         <v>2373</v>
@@ -968,37 +975,37 @@
         <v>6300000</v>
       </c>
       <c r="N14">
-        <f>(G14/J14)*M14</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>232566.37168141594</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>2.691740412979351</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
       <c r="C15">
-        <v>0</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="G15" s="1">
-        <f>AVERAGE(C15:E15)</f>
-        <v>0</v>
+        <f>AVERAGE(C15:F15)</f>
+        <v>139.73333333333332</v>
       </c>
       <c r="H15" s="1">
-        <f>G15/60</f>
-        <v>0</v>
+        <f t="shared" ref="H15" si="11">G15/60</f>
+        <v>2.3288888888888888</v>
       </c>
       <c r="J15">
         <v>2373</v>
@@ -1013,37 +1020,37 @@
         <v>6300000</v>
       </c>
       <c r="N15">
-        <f>(G15/J15)*M15</f>
-        <v>0</v>
+        <f t="shared" ref="N15" si="12">(G15/J15)*M15</f>
+        <v>370973.45132743364</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="O15" si="13">N15/86400</f>
+        <v>4.2936742051786299</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>197.2</v>
+        <v>1117.5</v>
       </c>
       <c r="D16">
-        <v>198.1</v>
+        <v>1113.9000000000001</v>
       </c>
       <c r="E16">
-        <v>197.8</v>
+        <v>1115.2</v>
       </c>
       <c r="G16" s="1">
         <f>AVERAGE(C16:E16)</f>
-        <v>197.69999999999996</v>
+        <v>1115.5333333333335</v>
       </c>
       <c r="H16" s="1">
-        <f>G16/60</f>
-        <v>3.2949999999999995</v>
+        <f t="shared" si="7"/>
+        <v>18.592222222222226</v>
       </c>
       <c r="J16">
         <v>2373</v>
@@ -1058,37 +1065,37 @@
         <v>6300000</v>
       </c>
       <c r="N16">
-        <f>(G16/J16)*M16</f>
-        <v>524867.25663716812</v>
+        <f t="shared" si="8"/>
+        <v>2961592.9203539826</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" ref="O16:O17" si="7">N16/86400</f>
-        <v>6.0748525073746311</v>
+        <f t="shared" si="9"/>
+        <v>34.277695837430358</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>167.5</v>
+        <v>876.7</v>
       </c>
       <c r="D17">
-        <v>167.5</v>
+        <v>876.7</v>
       </c>
       <c r="E17">
-        <v>177.8</v>
+        <v>881.6</v>
       </c>
       <c r="G17" s="1">
         <f>AVERAGE(C17:E17)</f>
-        <v>170.93333333333331</v>
+        <v>878.33333333333337</v>
       </c>
       <c r="H17" s="1">
-        <f>G17/60</f>
-        <v>2.8488888888888884</v>
+        <f t="shared" si="7"/>
+        <v>14.638888888888889</v>
       </c>
       <c r="J17">
         <v>2373</v>
@@ -1103,127 +1110,127 @@
         <v>6300000</v>
       </c>
       <c r="N17">
-        <f>(G17/J17)*M17</f>
+        <f t="shared" si="8"/>
+        <v>2331858.4070796459</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="9"/>
+        <v>26.989101933792199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>197.2</v>
+      </c>
+      <c r="D18">
+        <v>198.1</v>
+      </c>
+      <c r="E18">
+        <v>197.8</v>
+      </c>
+      <c r="G18" s="1">
+        <f>AVERAGE(C18:E18)</f>
+        <v>197.69999999999996</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="7"/>
+        <v>3.2949999999999995</v>
+      </c>
+      <c r="J18">
+        <v>2373</v>
+      </c>
+      <c r="K18">
+        <v>74533</v>
+      </c>
+      <c r="L18">
+        <v>50318</v>
+      </c>
+      <c r="M18">
+        <v>6300000</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="8"/>
+        <v>524867.25663716812</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ref="O18:O19" si="14">N18/86400</f>
+        <v>6.0748525073746311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>167.5</v>
+      </c>
+      <c r="D19">
+        <v>167.5</v>
+      </c>
+      <c r="E19">
+        <v>177.8</v>
+      </c>
+      <c r="G19" s="1">
+        <f>AVERAGE(C19:E19)</f>
+        <v>170.93333333333331</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="7"/>
+        <v>2.8488888888888884</v>
+      </c>
+      <c r="J19">
+        <v>2373</v>
+      </c>
+      <c r="K19">
+        <v>74533</v>
+      </c>
+      <c r="L19">
+        <v>50318</v>
+      </c>
+      <c r="M19">
+        <v>6300000</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="8"/>
         <v>453805.30973451317</v>
       </c>
-      <c r="O17" s="1">
-        <f t="shared" si="7"/>
+      <c r="O19" s="1">
+        <f t="shared" si="14"/>
         <v>5.2523762700753842</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>226.1</v>
-      </c>
-      <c r="D21">
-        <v>228.2</v>
-      </c>
-      <c r="E21">
-        <v>226.4</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" ref="G21:G26" si="8">AVERAGE(C21:E21)</f>
-        <v>226.89999999999998</v>
-      </c>
-      <c r="H21" s="1">
-        <f>G21/60</f>
-        <v>3.7816666666666663</v>
-      </c>
-      <c r="J21">
-        <v>10000</v>
-      </c>
-      <c r="K21">
-        <v>66945</v>
-      </c>
-      <c r="L21">
-        <v>17589</v>
-      </c>
-      <c r="M21">
-        <v>1300000</v>
-      </c>
-      <c r="N21">
-        <f>(G21/J21)*M21</f>
-        <v>29496.999999999996</v>
-      </c>
-      <c r="O21" s="1">
-        <f>N21/86400</f>
-        <v>0.34140046296296295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22">
-        <v>5.5</v>
-      </c>
-      <c r="D22">
-        <v>5.7</v>
-      </c>
-      <c r="E22">
-        <v>6.4</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8666666666666671</v>
-      </c>
-      <c r="H22" s="1">
-        <f>G22/60</f>
-        <v>9.7777777777777783E-2</v>
-      </c>
-      <c r="J22">
-        <v>10000</v>
-      </c>
-      <c r="K22">
-        <v>66945</v>
-      </c>
-      <c r="L22">
-        <v>17589</v>
-      </c>
-      <c r="M22">
-        <v>1300000</v>
-      </c>
-      <c r="N22">
-        <f>(G22/J22)*M22</f>
-        <v>762.66666666666674</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" ref="O22:O24" si="9">N22/86400</f>
-        <v>8.827160493827162E-3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>226.1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>228.2</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>226.4</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="G23:G28" si="15">AVERAGE(C23:E23)</f>
+        <v>226.89999999999998</v>
       </c>
       <c r="H23" s="1">
-        <f>G23/60</f>
-        <v>0</v>
+        <f t="shared" ref="H23:H28" si="16">G23/60</f>
+        <v>3.7816666666666663</v>
       </c>
       <c r="J23">
         <v>10000</v>
@@ -1238,37 +1245,37 @@
         <v>1300000</v>
       </c>
       <c r="N23">
-        <f>(G23/J23)*M23</f>
-        <v>0</v>
+        <f t="shared" ref="N23:N28" si="17">(G23/J23)*M23</f>
+        <v>29496.999999999996</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>N23/86400</f>
+        <v>0.34140046296296295</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>5.8666666666666671</v>
       </c>
       <c r="H24" s="1">
-        <f>G24/60</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>9.7777777777777783E-2</v>
       </c>
       <c r="J24">
         <v>10000</v>
@@ -1283,37 +1290,37 @@
         <v>1300000</v>
       </c>
       <c r="N24">
-        <f>(G24/J24)*M24</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>762.66666666666674</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" ref="O24:O26" si="18">N24/86400</f>
+        <v>8.827160493827162E-3</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
+      <c r="A25" t="s">
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>126.4</v>
+        <v>1178.0999999999999</v>
       </c>
       <c r="D25">
-        <v>146.4</v>
+        <v>1174</v>
       </c>
       <c r="E25">
-        <v>136.5</v>
+        <v>1179.2</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="8"/>
-        <v>136.43333333333334</v>
+        <f t="shared" si="15"/>
+        <v>1177.1000000000001</v>
       </c>
       <c r="H25" s="1">
-        <f>G25/60</f>
-        <v>2.2738888888888891</v>
+        <f t="shared" si="16"/>
+        <v>19.618333333333336</v>
       </c>
       <c r="J25">
         <v>10000</v>
@@ -1328,37 +1335,37 @@
         <v>1300000</v>
       </c>
       <c r="N25">
-        <f>(G25/J25)*M25</f>
-        <v>17736.333333333332</v>
+        <f t="shared" si="17"/>
+        <v>153023</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" ref="O25:O26" si="10">N25/86400</f>
-        <v>0.20528163580246911</v>
+        <f t="shared" si="18"/>
+        <v>1.771099537037037</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>22</v>
+      <c r="A26" t="s">
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>79.7</v>
+        <v>525.6</v>
       </c>
       <c r="D26">
-        <v>79.599999999999994</v>
+        <v>524.6</v>
       </c>
       <c r="E26">
-        <v>79.599999999999994</v>
+        <v>526.6</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="8"/>
-        <v>79.63333333333334</v>
+        <f t="shared" si="15"/>
+        <v>525.6</v>
       </c>
       <c r="H26" s="1">
-        <f>G26/60</f>
-        <v>1.3272222222222223</v>
+        <f t="shared" si="16"/>
+        <v>8.76</v>
       </c>
       <c r="J26">
         <v>10000</v>
@@ -1373,11 +1380,101 @@
         <v>1300000</v>
       </c>
       <c r="N26">
-        <f>(G26/J26)*M26</f>
+        <f t="shared" si="17"/>
+        <v>68328</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="18"/>
+        <v>0.79083333333333339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>126.4</v>
+      </c>
+      <c r="D27">
+        <v>146.4</v>
+      </c>
+      <c r="E27">
+        <v>136.5</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="15"/>
+        <v>136.43333333333334</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="16"/>
+        <v>2.2738888888888891</v>
+      </c>
+      <c r="J27">
+        <v>10000</v>
+      </c>
+      <c r="K27">
+        <v>66945</v>
+      </c>
+      <c r="L27">
+        <v>17589</v>
+      </c>
+      <c r="M27">
+        <v>1300000</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="17"/>
+        <v>17736.333333333332</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" ref="O27:O28" si="19">N27/86400</f>
+        <v>0.20528163580246911</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>79.7</v>
+      </c>
+      <c r="D28">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="E28">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="15"/>
+        <v>79.63333333333334</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="16"/>
+        <v>1.3272222222222223</v>
+      </c>
+      <c r="J28">
+        <v>10000</v>
+      </c>
+      <c r="K28">
+        <v>66945</v>
+      </c>
+      <c r="L28">
+        <v>17589</v>
+      </c>
+      <c r="M28">
+        <v>1300000</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="17"/>
         <v>10352.333333333334</v>
       </c>
-      <c r="O26" s="1">
-        <f t="shared" si="10"/>
+      <c r="O28" s="1">
+        <f t="shared" si="19"/>
         <v>0.11981867283950617</v>
       </c>
     </row>
